--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_original/ori2/42/correct_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_original/ori2/42/correct_predictions_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -917,31 +917,31 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly . Detach battery and reinstall it .</t>
+          <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Detach battery and reinstall it</t>
+          <t>Battery overheating</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -956,52 +956,52 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Battery overheating</t>
+          <t>Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-13</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
+          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Stop flying and wait for battery temperature to return to normal</t>
+          <t>Hardware malfunction</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3-13</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1016,22 +1016,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Hardware malfunction</t>
+          <t>Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1046,37 +1046,37 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Contact DJI Support to arrange for repairs</t>
+          <t>Camera sensor error</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
+          <t>Compass data error . Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Camera sensor error</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1106,52 +1106,52 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Please contact DJI Support</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Compass data error . Please contact DJI Support .</t>
+          <t>Compass interference . Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Please contact DJI Support</t>
+          <t>Compass interference</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1166,52 +1166,52 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Compass interference</t>
+          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-15</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Compass interference . Please move the aircraft away from potential interference source or calibrate the compass .</t>
+          <t>Compass Interference . Temp Max Altitude : 98ft .</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Compass Interference</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3-15</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1226,42 +1226,42 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Compass Interference</t>
+          <t>Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Compass Interference . Temp Max Altitude : 98ft .</t>
+          <t>Critical low battery . Recharge promptly .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Temp Max Altitude : 98ft</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1286,52 +1286,52 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Critical low battery</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Critical low battery . Recharge promptly .</t>
+          <t>Critical low battery . Return to home or land promptly .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Critical low battery</t>
+          <t>Return to home or land promptly</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1346,42 +1346,42 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Return to home or land promptly</t>
+          <t>Critical low battery</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Critical low battery . Return to home or land promptly .</t>
+          <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Critical low battery</t>
+          <t>CrystalSky is too hot</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1406,42 +1406,42 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot</t>
+          <t>Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
+          <t>Downward vision sensor error . Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Cool down the monitor to prevent overheating</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1466,37 +1466,37 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Downward vision sensor error</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Downward vision sensor error . Contact DJI Support for assistance .</t>
+          <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Downward vision sensor error</t>
+          <t>Extended flight distance detected</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1526,52 +1526,52 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Extended flight distance detected</t>
+          <t>Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-13</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
+          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5-13</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1586,17 +1586,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-23</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1607,26 +1607,26 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
+          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Failed to lower or pack up landing gear</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>4-23</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1646,52 +1646,52 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear</t>
+          <t>Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>9-15</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Take care of your gimbal when landing</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>9-15</t>
+          <t>0-13</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2786,52 +2786,52 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Strong Interference Now</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Strong Interference Now . Fly with caution .</t>
+          <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Unknown Error</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2846,22 +2846,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Unknown Error</t>
+          <t>Contact DJI support</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2876,42 +2876,42 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Contact DJI support</t>
+          <t>Cannot Takeoff</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
+          <t>Vision sensor(s) blocked . Fly with caution .</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Cannot Takeoff</t>
+          <t>Vision sensor(s) blocked</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2936,52 +2936,52 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked . Fly with caution .</t>
+          <t>Visual positioning inaccurate . Fly with caution .</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Visual positioning inaccurate</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2996,52 +2996,52 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate . Fly with caution .</t>
+          <t>Weak signal . Adjust antennas .</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -3056,52 +3056,52 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Adjust antennas</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Weak signal . Adjust antennas .</t>
+          <t>Weak signal . Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Adjust antennas</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -3116,52 +3116,52 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-15</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Weak signal . Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone . Please fly away or land with caution .</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>3-15</t>
+          <t>0-9</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -3176,50 +3176,20 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone</t>
+          <t>Please fly away or land with caution</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>11-17</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>45</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone . Please fly away or land with caution .</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Please fly away or land with caution</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>11-17</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_original/ori2/42/correct_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_original/ori2/42/correct_predictions_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -917,31 +917,31 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
+          <t>Battery installed incorrectly . Detach battery and reinstall it .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Battery overheating</t>
+          <t>Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -956,52 +956,52 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Stop flying and wait for battery temperature to return to normal</t>
+          <t>Battery overheating</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3-13</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
+          <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Hardware malfunction</t>
+          <t>Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>3-13</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1016,22 +1016,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Contact DJI Support to arrange for repairs</t>
+          <t>Hardware malfunction</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1046,37 +1046,37 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Camera sensor error</t>
+          <t>Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Compass data error . Please contact DJI Support .</t>
+          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Camera sensor error</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1106,52 +1106,52 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Please contact DJI Support</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Compass interference . Please move the aircraft away from potential interference source or calibrate the compass .</t>
+          <t>Compass data error . Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Compass interference</t>
+          <t>Please contact DJI Support</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1166,52 +1166,52 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Compass interference</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3-15</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Compass Interference . Temp Max Altitude : 98ft .</t>
+          <t>Compass interference . Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Compass Interference</t>
+          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-15</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1226,42 +1226,42 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Temp Max Altitude : 98ft</t>
+          <t>Compass Interference</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Critical low battery . Recharge promptly .</t>
+          <t>Compass Interference . Temp Max Altitude : 98ft .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1286,52 +1286,52 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Critical low battery</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Critical low battery . Return to home or land promptly .</t>
+          <t>Critical low battery . Recharge promptly .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Return to home or land promptly</t>
+          <t>Critical low battery</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1346,42 +1346,42 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Critical low battery</t>
+          <t>Return to home or land promptly</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
+          <t>Critical low battery . Return to home or land promptly .</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot</t>
+          <t>Critical low battery</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1406,42 +1406,42 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cool down the monitor to prevent overheating</t>
+          <t>CrystalSky is too hot</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Downward vision sensor error . Contact DJI Support for assistance .</t>
+          <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1466,37 +1466,37 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Downward vision sensor error</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
+          <t>Downward vision sensor error . Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Extended flight distance detected</t>
+          <t>Downward vision sensor error</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1526,52 +1526,52 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Extended flight distance detected</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>5-13</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
+          <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>5-13</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1586,17 +1586,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4-23</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1607,26 +1607,26 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
+          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear</t>
+          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>4-23</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1646,52 +1646,52 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Take care of your gimbal when landing</t>
+          <t>Failed to lower or pack up landing gear</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>9-15</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
+          <t>Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0-13</t>
+          <t>9-15</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2786,52 +2786,52 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Strong Interference Now</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
+          <t>Strong Interference Now . Fly with caution .</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Unknown Error</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2846,22 +2846,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Contact DJI support</t>
+          <t>Unknown Error</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2876,42 +2876,42 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Cannot Takeoff</t>
+          <t>Contact DJI support</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked . Fly with caution .</t>
+          <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked</t>
+          <t>Cannot Takeoff</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2936,52 +2936,52 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Vision sensor(s) blocked</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate . Fly with caution .</t>
+          <t>Vision sensor(s) blocked . Fly with caution .</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2996,52 +2996,52 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Visual positioning inaccurate</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Weak signal . Adjust antennas .</t>
+          <t>Visual positioning inaccurate . Fly with caution .</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -3056,52 +3056,52 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Adjust antennas</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Weak signal . Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+          <t>Weak signal . Adjust antennas .</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Adjust antennas</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -3116,52 +3116,52 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>3-15</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone . Please fly away or land with caution .</t>
+          <t>Weak signal . Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone</t>
+          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>3-15</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -3176,20 +3176,50 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>Your aircraft is at the boundary of an Altitude Zone</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0-9</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>45</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Your aircraft is at the boundary of an Altitude Zone . Please fly away or land with caution .</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
           <t>Please fly away or land with caution</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>11-17</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
